--- a/natmiOut/OldD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H2">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>5.740934864150547</v>
+        <v>6.949630179233334</v>
       </c>
       <c r="R2">
-        <v>5.740934864150547</v>
+        <v>62.5466716131</v>
       </c>
       <c r="S2">
-        <v>0.006101563260540904</v>
+        <v>0.006476955561577232</v>
       </c>
       <c r="T2">
-        <v>0.006101563260540904</v>
+        <v>0.006476955561577235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H3">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I3">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J3">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>204.237208509658</v>
+        <v>208.0097516670889</v>
       </c>
       <c r="R3">
-        <v>204.237208509658</v>
+        <v>1872.087765003801</v>
       </c>
       <c r="S3">
-        <v>0.2170667804750211</v>
+        <v>0.1938621024681745</v>
       </c>
       <c r="T3">
-        <v>0.2170667804750211</v>
+        <v>0.1938621024681746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H4">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I4">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J4">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>74.33208710899429</v>
+        <v>88.83804060619445</v>
       </c>
       <c r="R4">
-        <v>74.33208710899429</v>
+        <v>799.5423654557502</v>
       </c>
       <c r="S4">
-        <v>0.07900140700353926</v>
+        <v>0.08279577852981408</v>
       </c>
       <c r="T4">
-        <v>0.07900140700353926</v>
+        <v>0.08279577852981411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H5">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I5">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J5">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>23.54757659326333</v>
+        <v>28.56244807604445</v>
       </c>
       <c r="R5">
-        <v>23.54757659326333</v>
+        <v>257.0620326844</v>
       </c>
       <c r="S5">
-        <v>0.02502676508549579</v>
+        <v>0.02661979157843555</v>
       </c>
       <c r="T5">
-        <v>0.02502676508549579</v>
+        <v>0.02661979157843556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H6">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I6">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J6">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>8.420165965641926</v>
+        <v>10.174417954584</v>
       </c>
       <c r="R6">
-        <v>8.420165965641926</v>
+        <v>91.569761591256</v>
       </c>
       <c r="S6">
-        <v>0.008949095664616904</v>
+        <v>0.009482411474738925</v>
       </c>
       <c r="T6">
-        <v>0.008949095664616904</v>
+        <v>0.009482411474738927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H7">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I7">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J7">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>299.5524653570847</v>
+        <v>304.5310466180321</v>
       </c>
       <c r="R7">
-        <v>299.5524653570847</v>
+        <v>2740.779419562289</v>
       </c>
       <c r="S7">
-        <v>0.3183694573231636</v>
+        <v>0.2838185637502789</v>
       </c>
       <c r="T7">
-        <v>0.3183694573231636</v>
+        <v>0.283818563750279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H8">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I8">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J8">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>109.0220538711675</v>
+        <v>130.06092872318</v>
       </c>
       <c r="R8">
-        <v>109.0220538711675</v>
+        <v>1170.54835850862</v>
       </c>
       <c r="S8">
-        <v>0.1158704939578605</v>
+        <v>0.1212149184793647</v>
       </c>
       <c r="T8">
-        <v>0.1158704939578605</v>
+        <v>0.1212149184793647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H9">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I9">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J9">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>34.53697136368396</v>
+        <v>41.816078990816</v>
       </c>
       <c r="R9">
-        <v>34.53697136368396</v>
+        <v>376.3447109173441</v>
       </c>
       <c r="S9">
-        <v>0.03670648084145921</v>
+        <v>0.0389719853284045</v>
       </c>
       <c r="T9">
-        <v>0.03670648084145921</v>
+        <v>0.03897198532840451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H10">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I10">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J10">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>0.5676774280754903</v>
+        <v>1.373647305378667</v>
       </c>
       <c r="R10">
-        <v>0.5676774280754903</v>
+        <v>12.362825748408</v>
       </c>
       <c r="S10">
-        <v>0.0006033372300760758</v>
+        <v>0.001280219569208708</v>
       </c>
       <c r="T10">
-        <v>0.0006033372300760758</v>
+        <v>0.001280219569208708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H11">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I11">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J11">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>20.19546571902021</v>
+        <v>41.11471078328712</v>
       </c>
       <c r="R11">
-        <v>20.19546571902021</v>
+        <v>370.0323970495841</v>
       </c>
       <c r="S11">
-        <v>0.02146408460931385</v>
+        <v>0.03831832022748415</v>
       </c>
       <c r="T11">
-        <v>0.02146408460931385</v>
+        <v>0.03831832022748415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H12">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I12">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J12">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>7.350135305839388</v>
+        <v>17.55951495929556</v>
       </c>
       <c r="R12">
-        <v>7.350135305839388</v>
+        <v>158.03563463366</v>
       </c>
       <c r="S12">
-        <v>0.007811848871891007</v>
+        <v>0.01636521586631458</v>
       </c>
       <c r="T12">
-        <v>0.007811848871891007</v>
+        <v>0.01636521586631458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H13">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I13">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J13">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>2.328440930648365</v>
+        <v>5.645585279043556</v>
       </c>
       <c r="R13">
-        <v>2.328440930648365</v>
+        <v>50.81026751139201</v>
       </c>
       <c r="S13">
-        <v>0.002474706641508966</v>
+        <v>0.005261604434826718</v>
       </c>
       <c r="T13">
-        <v>0.002474706641508966</v>
+        <v>0.005261604434826719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H14">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I14">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J14">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>2.81705302851449</v>
+        <v>3.938224956922</v>
       </c>
       <c r="R14">
-        <v>2.81705302851449</v>
+        <v>35.444024612298</v>
       </c>
       <c r="S14">
-        <v>0.002994011893274245</v>
+        <v>0.003670369124633357</v>
       </c>
       <c r="T14">
-        <v>0.002994011893274245</v>
+        <v>0.003670369124633357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H15">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I15">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J15">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>100.2183547422304</v>
+        <v>117.8752212954227</v>
       </c>
       <c r="R15">
-        <v>100.2183547422304</v>
+        <v>1060.876991658804</v>
       </c>
       <c r="S15">
-        <v>0.1065137727211484</v>
+        <v>0.1098580140887093</v>
       </c>
       <c r="T15">
-        <v>0.1065137727211484</v>
+        <v>0.1098580140887093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H16">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I16">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J16">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>36.4744481624037</v>
+        <v>50.34284985189834</v>
       </c>
       <c r="R16">
-        <v>36.4744481624037</v>
+        <v>453.0856486670851</v>
       </c>
       <c r="S16">
-        <v>0.03876566415096503</v>
+        <v>0.0469188133648101</v>
       </c>
       <c r="T16">
-        <v>0.03876566415096503</v>
+        <v>0.04691881336481011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H17">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I17">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J17">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>11.55469858584514</v>
+        <v>16.18580312086133</v>
       </c>
       <c r="R17">
-        <v>11.55469858584514</v>
+        <v>145.672228087752</v>
       </c>
       <c r="S17">
-        <v>0.01228053027012498</v>
+        <v>0.0150849361532245</v>
       </c>
       <c r="T17">
-        <v>0.01228053027012498</v>
+        <v>0.0150849361532245</v>
       </c>
     </row>
   </sheetData>
